--- a/UIE-X/entity/ocrstudio_to_socr_format/scene_folder/model.xlsx
+++ b/UIE-X/entity/ocrstudio_to_socr_format/scene_folder/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>场景</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>23-7住房公积金个人住房贷款申请表</t>
+  </si>
+  <si>
+    <t>卡证表单23-7_道路运输证</t>
   </si>
   <si>
     <t/>
@@ -45,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +60,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -93,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -104,16 +113,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -430,9 +436,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -446,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="37.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -457,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -469,26 +475,22 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
